--- a/biology/Zoologie/Discheramocephalus/Discheramocephalus.xlsx
+++ b/biology/Zoologie/Discheramocephalus/Discheramocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discheramocephalus est un genre de coléoptères de la famille des Ptiliidae. Le genre a été identifié par Colin Jonhson en 2007[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discheramocephalus est un genre de coléoptères de la famille des Ptiliidae. Le genre a été identifié par Colin Jonhson en 2007.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 mars 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 mars 2021) :
 Discheramocephalus angustus Darby, 2016
 Discheramocephalus bisulcatus Darby, 2013
 Discheramocephalus brucei Grebennikov, V. V., 2008
@@ -556,7 +570,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Colin Jonhson, « Studies on Ptiliidae (Col.) from the Solomon Islands, 1 », Entomologist's Monthly Magazine, Oxford, vol. 143,‎ 2007, p. 213–226 (ISSN 0013-8908).</t>
         </is>
